--- a/GA1/GA1.xlsx
+++ b/GA1/GA1.xlsx
@@ -8,25 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshpopp/Downloads/Comp-Neuro/GA1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0A2BD-56B2-8440-A600-2622FC27604C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A99E329-90F0-1F47-BCFF-6F5B13E862AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1000" windowWidth="23600" windowHeight="15000" activeTab="1" xr2:uid="{C8E6EC63-FE88-4648-B33D-0C80394EBD9B}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="23600" windowHeight="15000" activeTab="4" xr2:uid="{C8E6EC63-FE88-4648-B33D-0C80394EBD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="5f" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="5f" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$3:$D$52</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$F$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$D$3:$D$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$F$2:$F$52</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet6!$A$2:$A$52</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet6!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$D$3:$D$52</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$F$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$F$2:$F$52</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet6!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet6!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet6!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet6!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet6!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$D$3:$D$52</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Time</t>
   </si>
@@ -101,6 +109,57 @@
   </si>
   <si>
     <t>V=14mV</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>tau</t>
   </si>
 </sst>
 </file>
@@ -2308,6 +2367,1458 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Firing Rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> as a Function of Input Current</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=10mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2119921692859501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1271072120902765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.934693402873664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6473857148100954</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2119921692859501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1271072120902765</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.934693402873664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6473857148100954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2119921692859501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1271072120902765</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.934693402873664</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6473857148100954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2763344725898502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2119921692859501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1271072120902765</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.934693402873664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6473857148100954</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2763344725898502</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2119921692859501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1271072120902765</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.934693402873664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6473857148100954</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2763344725898502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2119921692859501</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1271072120902765</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.934693402873664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6473857148100954</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.2763344725898502</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2119921692859501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1271072120902765</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.934693402873664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6473857148100954</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.2763344725898502</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1750309741540454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18BB-CA49-9602-14EC5D022643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=12mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$C$2:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7525286545083323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7216320834483971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5768628577721149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7525286545083323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7216320834483971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5768628577721149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7525286545083323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7216320834483971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5768628577721149</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7525286545083323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7216320834483971</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5768628577721149</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7525286545083323</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7216320834483971</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5768628577721149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7525286545083323</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7216320834483971</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5768628577721149</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.7525286545083323</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7216320834483971</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5768628577721149</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.7525286545083323</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7216320834483971</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5768628577721149</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4100371689848545</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.6543906031431406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18BB-CA49-9602-14EC5D022643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=14mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$D$2:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6450433638156636</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0967890370003306</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3779500969263871</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.5085707640231298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18BB-CA49-9602-14EC5D022643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1615567232"/>
+        <c:axId val="1598248992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1615567232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1598248992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1598248992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage (mV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615567232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time to Threshold for</a:t>
             </a:r>
             <a:r>
@@ -2416,7 +3927,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -2735,7 +4246,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2975,16 +4486,16 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4.7216320834483989</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.7216320834483989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2993,16 +4504,16 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4.7216320834483989</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>4.7216320834483989</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3011,16 +4522,16 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>4.7216320834483989</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>4.7216320834483989</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -3029,16 +4540,16 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>4.7216320834483989</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>4.7216320834483989</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3047,16 +4558,16 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>4.7216320834483989</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>4.7216320834483989</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -3065,16 +4576,16 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>4.7216320834483989</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>4.7216320834483989</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -3083,16 +4594,16 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>4.7216320834483989</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>4.7216320834483989</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -3101,16 +4612,16 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>4.7216320834483989</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>4.7216320834483989</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
@@ -3119,7 +4630,7 @@
                   <c:v>4.7216320834483989</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.585446705942692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,7 +4855,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3356,7 +4867,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3368,7 +4879,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3380,7 +4891,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -3392,7 +4903,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -3404,7 +4915,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3416,7 +4927,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -3428,7 +4939,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -3440,7 +4951,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -3452,7 +4963,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -3464,7 +4975,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3476,7 +4987,7 @@
                   <c:v>2.8638146224942931</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.458623455724549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
@@ -3713,7 +5224,7 @@
                   <c:v>1.7369913722761499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7751706063902049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3731,7 +5242,7 @@
                   <c:v>1.7369913722761499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7751706063902049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3749,7 +5260,7 @@
                   <c:v>1.7369913722761499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.7751706063902049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3767,7 +5278,7 @@
                   <c:v>1.7369913722761499</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7751706063902049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -3785,7 +5296,7 @@
                   <c:v>1.7369913722761499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.7751706063902049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -3803,7 +5314,7 @@
                   <c:v>1.7369913722761499</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.7751706063902049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -3821,7 +5332,7 @@
                   <c:v>1.7369913722761499</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.7751706063902049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -3839,7 +5350,7 @@
                   <c:v>1.7369913722761499</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.7751706063902049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -4043,7 +5554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4693,6 +6204,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7162,6 +8713,492 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7244,6 +9281,47 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E58909C-BB72-1F47-9A1D-C28F59B21CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -7280,7 +9358,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7321,7 +9399,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8955,15 +11033,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2D3F3B-7D41-AF4B-86EC-BCC62846891C}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8976,11 +11054,8 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8993,11 +11068,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -9015,7 +11087,7 @@
         <v>1.6450433638156636</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A52" si="0">A3+1</f>
         <v>2</v>
@@ -9025,7 +11097,7 @@
         <v>2.2119921692859501</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C52" si="2">C3*EXP(-1/8)+(1-EXP(-1/8))*12*1</f>
+        <f t="shared" ref="C4:C7" si="2">C3*EXP(-1/8)+(1-EXP(-1/8))*12*1</f>
         <v>2.6543906031431406</v>
       </c>
       <c r="D4">
@@ -9033,7 +11105,7 @@
         <v>3.0967890370003306</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9051,7 +11123,7 @@
         <v>4.3779500969263871</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9069,7 +11141,7 @@
         <v>5.5085707640231298</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9083,278 +11155,268 @@
         <v>5.5768628577721149</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
-        <v>6.5063400007341343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>1.6450433638156636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>B8*EXP(-1/8)+(1-EXP(-1/8))*10*1</f>
+        <v>1.1750309741540454</v>
+      </c>
+      <c r="C9">
+        <f>C8*EXP(-1/8)+(1-EXP(-1/8))*12*1</f>
+        <v>1.4100371689848545</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>3.0967890370003306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2.2119921692859501</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C4:C52" si="4">C9*EXP(-1/8)+(1-EXP(-1/8))*12*1</f>
+        <v>2.6543906031431406</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>4.3779500969263871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>3.1271072120902765</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>3.7525286545083323</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>5.5085707640231298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>3.934693402873664</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>4.7216320834483971</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>4.6473857148100954</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>5.5768628577721149</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>1.6450433638156636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>3.0967890370003306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>1.1750309741540454</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>1.4100371689848545</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>4.3779500969263871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>2.6543906031431406</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>5.5085707640231298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>1.1750309741540454</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>3.7525286545083323</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>2.2119921692859501</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>4.7216320834483971</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>1.6450433638156636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>3.1271072120902765</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>5.5768628577721149</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>3.0967890370003306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>3.934693402873664</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>4.3779500969263871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>4.6473857148100954</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>1.4100371689848545</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>5.5085707640231298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="1"/>
         <v>5.2763344725898502</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>6.3316013671078215</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>7.386868261625791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>5.8313798032149133</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>6.9976557638578969</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
-        <v>8.1639317245008787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>6.321205588285574</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>7.5854467059426902</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>8.8496878235998047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>6.7534753264165008</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>8.1041703916998014</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
-        <v>9.4548654569831019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>7.1349520313980968</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>8.5619424376777182</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
-        <v>9.9889328439573362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>7.4716040419525331</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>8.9659248503430415</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>10.460245658733546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>7.7686983985156992</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>9.3224380782188412</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>10.87617775792198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>8.030883247958057</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>9.6370598975496691</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>11.243236547141279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>8.2622605654955468</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>9.9147126785946575</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>11.567164791693765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>8.466450331550714</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>10.159740397860858</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>11.853030464170997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>8.646647167633871</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>10.375976601160648</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>12.105306034687418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>8.805670317332801</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>10.566804380799365</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
-        <v>12.327938444265921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>8.9460077543813536</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>10.735209305257627</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
-        <v>12.524410856133896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>9.0698551078933622</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>10.883826129472038</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>12.697797151050707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>9.17915001376101</v>
-      </c>
       <c r="C22">
-        <f t="shared" si="2"/>
-        <v>11.014980016513213</v>
+        <f t="shared" si="4"/>
+        <v>2.6543906031431406</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
-        <v>12.850810019265413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -9363,16 +11425,15 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
-        <v>9.2756024296574839</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
-        <v>11.130722915588983</v>
+        <f t="shared" si="4"/>
+        <v>3.7525286545083323</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>12.985843401520476</v>
+        <v>1.6450433638156636</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -9382,15 +11443,15 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>9.360721387932923</v>
+        <v>1.1750309741540454</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
-        <v>11.232865665519508</v>
+        <f t="shared" si="4"/>
+        <v>4.7216320834483971</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>13.10500994310609</v>
+        <v>3.0967890370003306</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -9400,15 +11461,15 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>9.4358386049622265</v>
+        <v>2.2119921692859501</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
-        <v>11.323006325954672</v>
+        <f t="shared" si="4"/>
+        <v>5.5768628577721149</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>13.210174046947113</v>
+        <v>4.3779500969263871</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -9418,15 +11479,14 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>9.5021293163213603</v>
+        <v>3.1271072120902765</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
-        <v>11.402555179585633</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>13.3029810428499</v>
+        <v>5.5085707640231298</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -9436,15 +11496,14 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>9.5606306637659255</v>
+        <v>3.934693402873664</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
-        <v>11.472756796519111</v>
+        <f t="shared" si="4"/>
+        <v>1.4100371689848545</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
-        <v>13.384882929272292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -9454,15 +11513,15 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>9.6122579216827795</v>
+        <v>4.6473857148100954</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>11.534709506019336</v>
+        <f t="shared" si="4"/>
+        <v>2.6543906031431406</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>13.457161090355887</v>
+        <v>1.6450433638156636</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -9472,15 +11531,15 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>9.6578188168833403</v>
+        <v>5.2763344725898502</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
-        <v>11.589382580260008</v>
+        <f t="shared" si="4"/>
+        <v>3.7525286545083323</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>13.520946343636671</v>
+        <v>3.0967890370003306</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -9489,16 +11548,15 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
-        <v>9.6980261657768168</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
-        <v>11.637631398932179</v>
+        <f t="shared" si="4"/>
+        <v>4.7216320834483971</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>13.577236632087537</v>
+        <v>4.3779500969263871</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -9508,15 +11566,15 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>9.7335090266364475</v>
+        <v>1.1750309741540454</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
-        <v>11.680210831963734</v>
+        <f t="shared" si="4"/>
+        <v>5.5768628577721149</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>13.626912637291019</v>
+        <v>5.5085707640231298</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9526,15 +11584,13 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>9.7648225414399121</v>
+        <v>2.2119921692859501</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
-        <v>11.717787049727889</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>13.670751558015869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -9544,15 +11600,15 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>9.7924566212630051</v>
+        <v>3.1271072120902765</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
-        <v>11.750947945515602</v>
+        <f t="shared" si="4"/>
+        <v>1.4100371689848545</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>13.7094392697682</v>
+        <v>1.6450433638156636</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -9562,15 +11618,15 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>9.8168436111126613</v>
+        <v>3.934693402873664</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
-        <v>11.780212333335189</v>
+        <f t="shared" si="4"/>
+        <v>2.6543906031431406</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>13.743581055557717</v>
+        <v>3.0967890370003306</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -9580,15 +11636,15 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>9.8383650541183449</v>
+        <v>4.6473857148100954</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
-        <v>11.806038064942008</v>
+        <f t="shared" si="4"/>
+        <v>3.7525286545083323</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>13.773711075765673</v>
+        <v>4.3779500969263871</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -9598,15 +11654,15 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>9.8573576609100115</v>
+        <v>5.2763344725898502</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
-        <v>11.828829193092009</v>
+        <f t="shared" si="4"/>
+        <v>4.7216320834483971</v>
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>13.800300725274006</v>
+        <v>5.5085707640231298</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -9615,16 +11671,14 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
-        <v>9.8741185775756648</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
-        <v>11.848942293090793</v>
+        <f t="shared" si="4"/>
+        <v>5.5768628577721149</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
-        <v>13.82376600860592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -9634,15 +11688,14 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>9.8889100346175809</v>
+        <v>1.1750309741540454</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>11.866692041541093</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>13.844474048464605</v>
+        <v>1.6450433638156636</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -9652,15 +11705,15 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>9.9019634496417854</v>
+        <v>2.2119921692859501</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
-        <v>11.882356139570138</v>
+        <f t="shared" si="4"/>
+        <v>1.4100371689848545</v>
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>13.862748829498491</v>
+        <v>3.0967890370003306</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -9670,15 +11723,15 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>9.9134830479687981</v>
+        <v>3.1271072120902765</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
-        <v>11.896179657562552</v>
+        <f t="shared" si="4"/>
+        <v>2.6543906031431406</v>
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>13.878876267156308</v>
+        <v>4.3779500969263871</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -9688,15 +11741,15 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>9.9236490578114047</v>
+        <v>3.934693402873664</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
-        <v>11.908378869373681</v>
+        <f t="shared" si="4"/>
+        <v>3.7525286545083323</v>
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>13.893108680935956</v>
+        <v>5.5085707640231298</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -9706,15 +11759,14 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>9.9326205300091495</v>
+        <v>4.6473857148100954</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
-        <v>11.919144636010977</v>
+        <f t="shared" si="4"/>
+        <v>4.7216320834483971</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
-        <v>13.9056687420128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -9724,15 +11776,15 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>9.9405378264352837</v>
+        <v>5.2763344725898502</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
-        <v>11.928645391722338</v>
+        <f t="shared" si="4"/>
+        <v>5.5768628577721149</v>
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>13.916752957009388</v>
+        <v>1.6450433638156636</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -9741,16 +11793,14 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
-        <v>9.9475248160081904</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
-        <v>11.937029779209826</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>13.926534742411457</v>
+        <v>3.0967890370003306</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -9760,15 +11810,15 @@
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>9.9536908126646715</v>
+        <v>1.1750309741540454</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
-        <v>11.944428975197603</v>
+        <f t="shared" si="4"/>
+        <v>1.4100371689848545</v>
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>13.935167137730531</v>
+        <v>4.3779500969263871</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -9778,15 +11828,15 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>9.9591322856153628</v>
+        <v>2.2119921692859501</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
-        <v>11.950958742738433</v>
+        <f t="shared" si="4"/>
+        <v>2.6543906031431406</v>
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>13.942785199861499</v>
+        <v>5.5085707640231298</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -9796,15 +11846,14 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>9.9639343686398458</v>
+        <v>3.1271072120902765</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
-        <v>11.956721242367813</v>
+        <f t="shared" si="4"/>
+        <v>3.7525286545083323</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
-        <v>13.949508116095775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -9814,15 +11863,15 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>9.9681721920349062</v>
+        <v>3.934693402873664</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
-        <v>11.961806630441885</v>
+        <f t="shared" si="4"/>
+        <v>4.7216320834483971</v>
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>13.955441068848859</v>
+        <v>1.6450433638156636</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -9832,15 +11881,15 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>9.9719120580547482</v>
+        <v>4.6473857148100954</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
-        <v>11.966294469665694</v>
+        <f t="shared" si="4"/>
+        <v>5.5768628577721149</v>
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>13.960676881276639</v>
+        <v>3.0967890370003306</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -9850,15 +11899,14 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>9.97521247823334</v>
+        <v>5.2763344725898502</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
-        <v>11.970254973880003</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>13.965297469526666</v>
+        <v>4.3779500969263871</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -9867,16 +11915,15 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
-        <v>9.9781250888181745</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
-        <v>11.973750106581804</v>
+        <f t="shared" si="4"/>
+        <v>1.4100371689848545</v>
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>13.969375124345435</v>
+        <v>5.5085707640231298</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -9886,19 +11933,19 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>9.9806954586377259</v>
+        <v>1.1750309741540454</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
-        <v>11.976834550365265</v>
+        <f t="shared" si="4"/>
+        <v>2.6543906031431406</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
-        <v>13.972973642092807</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9907,7 +11954,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9970,11 +12017,11 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f>1/E3</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -11119,7 +13166,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11263,14 +13310,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C52" si="1">C3*EXP(-1/2)+(1-EXP(-1/2))*B4*1</f>
-        <v>7.585446705942692</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <f>E3*EXP(-1/2)+(1-EXP(-1/2))*D4*1</f>
+        <f t="shared" ref="E4:E52" si="1">E3*EXP(-1/2)+(1-EXP(-1/2))*D4*1</f>
         <v>2.8638146224942931</v>
       </c>
       <c r="F4">
@@ -11311,14 +13357,14 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" ref="C4:C52" si="6">C4*EXP(-1/2)+(1-EXP(-1/2))*B5*1</f>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E4:E52" si="6">E4*EXP(-1/2)+(1-EXP(-1/2))*D5*1</f>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11358,21 +13404,20 @@
         <v>12</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
-        <v>5.7751706063902049</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -11405,28 +13450,28 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
         <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4.7216320834483989</v>
+      </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7">
         <v>12</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
-        <v>5.3606354988009652</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -11458,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F8">
@@ -11472,14 +13517,14 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
         <v>12</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
-        <v>5.1092072465208176</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -11498,15 +13543,14 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>12</v>
@@ -11526,6 +13570,7 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9">
@@ -11545,13 +13590,13 @@
         <v>12</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
@@ -11592,13 +13637,14 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11">
-        <f>E10*EXP(-1/2)+(1-EXP(-1/2))*D11*1</f>
+        <f t="shared" si="1"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="F11">
@@ -11639,22 +13685,20 @@
         <v>12</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="6"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>5.7751706063902049</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11687,20 +13731,20 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
@@ -11740,6 +13784,7 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -11780,14 +13825,14 @@
         <v>12</v>
       </c>
       <c r="C15">
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="F15">
@@ -11801,8 +13846,7 @@
         <v>12</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>5.3606354988009652</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -11828,14 +13872,13 @@
         <v>12</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="6"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F16">
@@ -11849,6 +13892,7 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16">
@@ -11875,14 +13919,14 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D17">
         <v>12</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -11922,21 +13966,20 @@
         <v>12</v>
       </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
         <v>12</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
-        <v>5.7751706063902049</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -11949,8 +13992,7 @@
         <v>12</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
-        <v>5.1092072465208176</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -11969,20 +14011,21 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
         <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>4.7216320834483989</v>
+      </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19">
@@ -11996,6 +14039,7 @@
         <v>0</v>
       </c>
       <c r="K19">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L19">
@@ -12021,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F20">
@@ -12062,15 +14106,14 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>12</v>
@@ -12110,13 +14153,13 @@
         <v>12</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
@@ -12157,13 +14200,14 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="F23">
@@ -12177,8 +14221,7 @@
         <v>12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>5.3606354988009652</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>12</v>
@@ -12204,27 +14247,26 @@
         <v>12</v>
       </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="6"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F24">
         <v>12</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>5.7751706063902049</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24">
@@ -12251,20 +14293,20 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25">
@@ -12304,6 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E26">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26">
@@ -12344,14 +14387,14 @@
         <v>12</v>
       </c>
       <c r="C27">
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="F27">
@@ -12392,14 +14435,13 @@
         <v>12</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="6"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F28">
@@ -12420,8 +14462,7 @@
         <v>12</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
-        <v>5.1092072465208176</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -12440,14 +14481,14 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D29">
         <v>12</v>
       </c>
       <c r="E29">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -12467,6 +14508,7 @@
         <v>0</v>
       </c>
       <c r="K29">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L29">
@@ -12486,21 +14528,20 @@
         <v>12</v>
       </c>
       <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
         <v>12</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
-        <v>5.7751706063902049</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -12533,28 +14574,28 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31">
         <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>4.7216320834483989</v>
+      </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31">
         <v>12</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>5.3606354988009652</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -12586,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F32">
@@ -12600,6 +14641,7 @@
         <v>0</v>
       </c>
       <c r="I32">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J32">
@@ -12626,15 +14668,14 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="D33">
         <v>12</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>12</v>
@@ -12674,13 +14715,13 @@
         <v>12</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
@@ -12721,13 +14762,14 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D35">
         <v>12</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="F35">
@@ -12768,22 +14810,20 @@
         <v>12</v>
       </c>
       <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="6"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F36">
         <v>12</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>5.7751706063902049</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -12816,20 +14856,20 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37">
@@ -12840,11 +14880,11 @@
         <v>1.7369913722761499</v>
       </c>
       <c r="J37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
-        <v>5.3606354988009652</v>
+        <v>0.63900341535256677</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -12869,6 +14909,7 @@
         <v>0</v>
       </c>
       <c r="E38">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F38">
@@ -12886,7 +14927,7 @@
         <v>1.0535385229418057</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -12908,14 +14949,14 @@
         <v>12</v>
       </c>
       <c r="C39">
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D39">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="F39">
@@ -12929,8 +14970,7 @@
         <v>12</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>5.3606354988009652</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -12956,14 +14996,13 @@
         <v>12</v>
       </c>
       <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="6"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F40">
@@ -12977,6 +15016,7 @@
         <v>0</v>
       </c>
       <c r="I40">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J40">
@@ -13003,14 +15043,14 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D41">
         <v>12</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -13050,21 +15090,20 @@
         <v>12</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
         <v>12</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
-        <v>5.7751706063902049</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -13074,11 +15113,11 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>4.7216320834483989</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -13097,20 +15136,21 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D43">
-        <v>12</v>
-      </c>
-      <c r="E43">
         <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>4.7216320834483989</v>
+      </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43">
@@ -13121,11 +15161,11 @@
         <v>4.7216320834483989</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>2.8638146224942931</v>
+        <v>4.7216320834483989</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -13150,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F44">
@@ -13172,7 +15212,7 @@
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
-        <v>1.7369913722761499</v>
+        <v>2.8638146224942931</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -13191,15 +15231,14 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="D45">
         <v>12</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>12</v>
@@ -13220,7 +15259,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
-        <v>1.0535385229418057</v>
+        <v>1.7369913722761499</v>
       </c>
       <c r="L45">
         <v>12</v>
@@ -13239,13 +15278,13 @@
         <v>12</v>
       </c>
       <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
@@ -13267,7 +15306,7 @@
       </c>
       <c r="K46">
         <f t="shared" si="4"/>
-        <v>0.63900341535256677</v>
+        <v>1.0535385229418057</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -13286,13 +15325,14 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D47">
         <v>12</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="F47">
@@ -13306,15 +15346,14 @@
         <v>12</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
-        <v>5.3606354988009652</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
-        <v>5.1092072465208176</v>
+        <v>0.63900341535256677</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -13333,31 +15372,30 @@
         <v>12</v>
       </c>
       <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="6"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F48">
         <v>12</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
-        <v>5.7751706063902049</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -13379,20 +15417,20 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49">
-        <f t="shared" si="6"/>
-        <v>6.458623455724549</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49">
@@ -13432,6 +15470,7 @@
         <v>0</v>
       </c>
       <c r="E50">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F50">
@@ -13472,14 +15511,14 @@
         <v>12</v>
       </c>
       <c r="C51">
+        <f t="shared" si="6"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="1"/>
-        <v>4.7216320834483989</v>
-      </c>
-      <c r="D51">
-        <v>12</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="6"/>
         <v>4.7216320834483989</v>
       </c>
       <c r="F51">
@@ -13520,14 +15559,13 @@
         <v>12</v>
       </c>
       <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="1"/>
-        <v>7.585446705942692</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="6"/>
         <v>2.8638146224942931</v>
       </c>
       <c r="F52">
@@ -13545,11 +15583,11 @@
         <v>2.8638146224942931</v>
       </c>
       <c r="J52">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <f t="shared" si="4"/>
-        <v>4.7216320834483989</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -13566,6 +15604,2609 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E741BD7-4F18-E546-A7F0-D64305B12F02}">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>F2</f>
+        <v>2</v>
+      </c>
+      <c r="H3" t="e">
+        <f>H2*EXP(-1/E3)+(1-EXP(-1/E3))*(2)*1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" t="e">
+        <f>I2*EXP(-1/2)+(1-EXP(-1/2))*H3*1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <f>K2*EXP(-1/F3)+(1-EXP(-1/F3))*(4*B3/9+8*C3/9)*1</f>
+        <v>2.0985031481992884</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <f>M2*EXP(-1/2)+(1-EXP(-1/2))*L3*1</f>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <f>O2*EXP(-1/2)+(1-EXP(-1/2))*N3*1</f>
+        <v>4.7216320834483989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A52" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F52" si="1">F3</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" ref="I4:I52" si="2">I3*EXP(-1/2)+(1-EXP(-1/2))*H4*1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K52" si="3">K3*EXP(-1/F4)+(1-EXP(-1/F4))*(4*B4/9+8*C4/9)*1</f>
+        <v>3.3713096470856412</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M52" si="4">M3*EXP(-1/2)+(1-EXP(-1/2))*L4*1</f>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O52" si="5">O3*EXP(-1/2)+(1-EXP(-1/2))*N4*1</f>
+        <v>2.8638146224942931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>4.1433058125417084</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>1.7369913722761499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>4.6115451560713989</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1.0535385229418057</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>1.0535385229418057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>4.8955466740058728</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0.63900341535256677</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>0.63900341535256677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>5.0678023020380589</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>0.38757516307241824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>5.1722806217476345</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>4.9567083027949446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>5.2356499259267508</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>3.0063955568973051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>5.2740853517960407</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>1.8234710804820524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>5.2973976160048775</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>1.1059911174116877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>5.3115372189948582</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>0.67081752208002354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>5.3201133217244454</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0.40687139421399071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>5.325314990970786</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>4.9684120585992098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>5.3284699628503756</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>1.0535385229418057</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>3.0134942436263819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>5.3303835500258785</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0.63900341535256677</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>1.8277766516269327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>5.3315441993178538</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>1.1086025783186317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>5.3322481686986105</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>0.67240145318672606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>5.3326751477115382</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>0.40783209699307837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>5.3329341235739331</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>4.9689947542895974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>5.3330912003746</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>3.0138476664278842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>5.3331864722701345</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>1.8279910133918853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>5.3332442575957852</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>1.1087325953013456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>5.3332793061674737</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0.67248031247302531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>5.3333005642007816</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>1.0535385229418057</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>0.40787992756802188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>5.3333134578497479</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>0.63900341535256677</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>4.9690237649997719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>5.3333212782431616</v>
+      </c>
+      <c r="L28">
+        <v>12</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>3.0138652623130651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>5.3333260215515388</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>1.8280016858357324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>5.3333288985134981</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>1.1087390684657528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>5.3333306434791332</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>0.67248423864570361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>5.3333317018542914</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0.40788230891212662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>5.3333323437912732</v>
+      </c>
+      <c r="L33">
+        <v>12</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>4.9690252093579836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>5.3333327331457347</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>3.013866138360604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>5.3333329693011535</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>1.828002217185424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>5.3333331125366552</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>1.0535385229418057</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>1.1087393907456318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>5.3333331994133779</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>0.63900341535256677</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>0.67248443411833125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>5.3333332521067742</v>
+      </c>
+      <c r="L38">
+        <v>12</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="5"/>
+        <v>0.40788242747226844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="J39">
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>5.333333284066935</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>12</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="5"/>
+        <v>4.969025281268344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>5.3333333034517523</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>3.0138661819764425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>5.3333333152092379</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="5"/>
+        <v>1.8280022436397674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>5.3333333223405139</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="5"/>
+        <v>1.1087394067910021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>5.3333333266658514</v>
+      </c>
+      <c r="L43">
+        <v>12</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="5"/>
+        <v>0.67248444385034034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>5.3333333292893013</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="5"/>
+        <v>0.40788243337503033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>5.333333330880504</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="N45">
+        <v>12</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="5"/>
+        <v>4.9690252848485503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>5.3333333318456173</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>1.0535385229418057</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="5"/>
+        <v>3.0138661841479473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>1.7369913722761499</v>
+      </c>
+      <c r="J47">
+        <v>12</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>5.3333333324309882</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>0.63900341535256677</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="5"/>
+        <v>1.8280022449568516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>12</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>5.3333333327860331</v>
+      </c>
+      <c r="L48">
+        <v>12</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
+        <v>1.1087394075898542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>5.333333333001379</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="5"/>
+        <v>0.67248444433486865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>A49+1</f>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>5.3333333331319928</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="5"/>
+        <v>0.40788243366891158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>4.7216320834483989</v>
+      </c>
+      <c r="J51">
+        <v>12</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>5.3333333332112147</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="5"/>
+        <v>4.969025285026798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>2.8638146224942931</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>5.3333333332592652</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="5"/>
+        <v>3.0138661842560599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C7BFB4-7DA2-ED42-B78F-3E211A1B286D}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -14325,7 +18966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62C70AB-54B9-4D46-8A0B-B9EECB8F780E}">
   <dimension ref="A1"/>
   <sheetViews>
